--- a/Output/productivity_TL_Mar_valid.xlsx
+++ b/Output/productivity_TL_Mar_valid.xlsx
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -3868,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U54">
-        <v>0.25</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U63">
-        <v>0.4444444444444444</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4756,10 +4756,10 @@
         <v>5</v>
       </c>
       <c r="T69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U69">
-        <v>0.4545454545454545</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="U97">
         <v>0</v>
@@ -6641,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T101">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="U101">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6877,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="U105">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6995,13 +6995,13 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T107">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="S111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="U111">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U120">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U129">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U138">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9594,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="T151">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U151">
-        <v>0.08333333333333333</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="T156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U156">
         <v>0</v>
@@ -10122,13 +10122,13 @@
         <v>0</v>
       </c>
       <c r="S160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U160">
-        <v>0.07692307692307693</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10476,13 +10476,13 @@
         <v>0</v>
       </c>
       <c r="S166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T166">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U166">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10830,13 +10830,13 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T172">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="U172">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -11125,13 +11125,13 @@
         <v>0</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T177">
         <v>5</v>
       </c>
       <c r="U177">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="T188">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U188">
         <v>0</v>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="T192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U192">
         <v>0</v>
@@ -12187,13 +12187,13 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T195">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="U195">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12482,13 +12482,13 @@
         <v>0</v>
       </c>
       <c r="S200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U200">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -13016,10 +13016,10 @@
         <v>1</v>
       </c>
       <c r="T209">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U209">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -13426,13 +13426,13 @@
         <v>0</v>
       </c>
       <c r="S216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T216">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U216">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -13898,13 +13898,13 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T224">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U224">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:21">
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="T231">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U231">
         <v>0</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="T236">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U236">
         <v>0</v>
@@ -15199,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="T246">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="U246">
         <v>0</v>
@@ -15609,13 +15609,13 @@
         <v>0</v>
       </c>
       <c r="S253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T253">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U253">
-        <v>0.0303030303030303</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="254" spans="1:21">
@@ -16202,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="T263">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U263">
         <v>0</v>
@@ -16612,13 +16612,13 @@
         <v>0</v>
       </c>
       <c r="S270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T270">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U270">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:21">
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="T280">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U280">
         <v>0</v>
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="T281">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U281">
         <v>0</v>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="T286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U286">
         <v>0</v>
@@ -17851,13 +17851,13 @@
         <v>0</v>
       </c>
       <c r="S291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T291">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U291">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="292" spans="1:21">
@@ -18736,13 +18736,13 @@
         <v>0</v>
       </c>
       <c r="S306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T306">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="U306">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="307" spans="1:21">
@@ -19444,13 +19444,13 @@
         <v>0</v>
       </c>
       <c r="S318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T318">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U318">
-        <v>0.09090909090909091</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="319" spans="1:21">
@@ -19916,13 +19916,13 @@
         <v>0</v>
       </c>
       <c r="S326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T326">
         <v>10</v>
       </c>
       <c r="U326">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:21">
@@ -20332,10 +20332,10 @@
         <v>1</v>
       </c>
       <c r="T333">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U333">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="334" spans="1:21">
@@ -20391,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="T334">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U334">
         <v>0</v>
@@ -21096,13 +21096,13 @@
         <v>0</v>
       </c>
       <c r="S346">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T346">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="U346">
-        <v>0.07894736842105263</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="347" spans="1:21">
@@ -22512,13 +22512,13 @@
         <v>0</v>
       </c>
       <c r="S370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T370">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U370">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="371" spans="1:21">
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T377">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U377">
-        <v>0.06060606060606061</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="378" spans="1:21">
@@ -24462,10 +24462,10 @@
         <v>5</v>
       </c>
       <c r="T403">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="U403">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -25524,10 +25524,10 @@
         <v>1</v>
       </c>
       <c r="T421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U421">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="422" spans="1:21">
@@ -25583,10 +25583,10 @@
         <v>1</v>
       </c>
       <c r="T422">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U422">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="423" spans="1:21">
@@ -26999,10 +26999,10 @@
         <v>1</v>
       </c>
       <c r="T446">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U446">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="447" spans="1:21">
@@ -27291,13 +27291,13 @@
         <v>0</v>
       </c>
       <c r="S451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T451">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U451">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="452" spans="1:21">
@@ -28353,13 +28353,13 @@
         <v>0</v>
       </c>
       <c r="S469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T469">
         <v>4</v>
       </c>
       <c r="U469">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="470" spans="1:21">
@@ -28471,13 +28471,13 @@
         <v>0</v>
       </c>
       <c r="S471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T471">
         <v>4</v>
       </c>
       <c r="U471">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="472" spans="1:21">
@@ -28530,13 +28530,13 @@
         <v>0</v>
       </c>
       <c r="S472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T472">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U472">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="473" spans="1:21">
@@ -28710,10 +28710,10 @@
         <v>1</v>
       </c>
       <c r="T475">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U475">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="476" spans="1:21">
@@ -28825,13 +28825,13 @@
         <v>0</v>
       </c>
       <c r="S477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T477">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="U477">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="478" spans="1:21">
@@ -29359,7 +29359,7 @@
         <v>0</v>
       </c>
       <c r="T486">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U486">
         <v>0</v>
@@ -29651,13 +29651,13 @@
         <v>0</v>
       </c>
       <c r="S491">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T491">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U491">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="492" spans="1:21">
@@ -29949,10 +29949,10 @@
         <v>2</v>
       </c>
       <c r="T496">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U496">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="497" spans="1:21">
@@ -30123,13 +30123,13 @@
         <v>0</v>
       </c>
       <c r="S499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T499">
         <v>4</v>
       </c>
       <c r="U499">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="500" spans="1:21">
@@ -30300,13 +30300,13 @@
         <v>0</v>
       </c>
       <c r="S502">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T502">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="U502">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="503" spans="1:21">
@@ -31188,7 +31188,7 @@
         <v>0</v>
       </c>
       <c r="T517">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U517">
         <v>0</v>
@@ -31424,7 +31424,7 @@
         <v>0</v>
       </c>
       <c r="T521">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U521">
         <v>0</v>
@@ -31657,13 +31657,13 @@
         <v>0</v>
       </c>
       <c r="S525">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T525">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U525">
-        <v>0.07692307692307693</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="526" spans="1:21">
@@ -32719,13 +32719,13 @@
         <v>0</v>
       </c>
       <c r="S543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T543">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U543">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="544" spans="1:21">
@@ -32840,10 +32840,10 @@
         <v>1</v>
       </c>
       <c r="T545">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U545">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="546" spans="1:21">
@@ -33073,13 +33073,13 @@
         <v>0</v>
       </c>
       <c r="S549">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T549">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="U549">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="550" spans="1:21">
@@ -33427,13 +33427,13 @@
         <v>0</v>
       </c>
       <c r="S555">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T555">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U555">
-        <v>0.2173913043478261</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="556" spans="1:21">
@@ -33722,13 +33722,13 @@
         <v>0</v>
       </c>
       <c r="S560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T560">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U560">
-        <v>0.1538461538461539</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="561" spans="1:21">
@@ -33958,13 +33958,13 @@
         <v>0</v>
       </c>
       <c r="S564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T564">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U564">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="565" spans="1:21">
@@ -34489,13 +34489,13 @@
         <v>0</v>
       </c>
       <c r="S573">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T573">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="U573">
-        <v>0.04347826086956522</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="574" spans="1:21">
@@ -34843,13 +34843,13 @@
         <v>0</v>
       </c>
       <c r="S579">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T579">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U579">
-        <v>0.0625</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="580" spans="1:21">
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
       <c r="T587">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="U587">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="S594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T594">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="U594">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:21">
@@ -36259,13 +36259,13 @@
         <v>0</v>
       </c>
       <c r="S603">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T603">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U603">
-        <v>0.05</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="604" spans="1:21">
@@ -36734,7 +36734,7 @@
         <v>0</v>
       </c>
       <c r="T611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U611">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="S614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T614">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="U614">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="615" spans="1:21">
@@ -38442,13 +38442,13 @@
         <v>0</v>
       </c>
       <c r="S640">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T640">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U640">
-        <v>0.06451612903225806</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="641" spans="1:21">
@@ -40094,13 +40094,13 @@
         <v>0</v>
       </c>
       <c r="S668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T668">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="U668">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="669" spans="1:21">
@@ -40448,13 +40448,13 @@
         <v>0</v>
       </c>
       <c r="S674">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T674">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U674">
-        <v>0.05555555555555555</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="675" spans="1:21">
@@ -40746,7 +40746,7 @@
         <v>0</v>
       </c>
       <c r="T679">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U679">
         <v>0</v>
@@ -42396,13 +42396,13 @@
         <v>7.416666666666666</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>20</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -43257,10 +43257,10 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H87">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -43358,13 +43358,13 @@
         <v>7.15</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G91">
         <v>20</v>
       </c>
       <c r="H91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -43569,7 +43569,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -43592,13 +43592,13 @@
         <v>10.63333333333333</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -43621,7 +43621,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -43644,13 +43644,13 @@
         <v>12.1</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -43673,7 +43673,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -43696,13 +43696,13 @@
         <v>10.76666666666667</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>0.0303030303030303</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -43722,13 +43722,13 @@
         <v>10.51666666666667</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H105">
-        <v>0.02173913043478261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -43748,13 +43748,13 @@
         <v>7.683333333333334</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -43774,13 +43774,13 @@
         <v>9.066666666666666</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G107">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H107">
-        <v>0.07894736842105263</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -43800,13 +43800,13 @@
         <v>13.48333333333333</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>0.06060606060606061</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -43829,10 +43829,10 @@
         <v>5</v>
       </c>
       <c r="G109">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>0.2083333333333333</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -43852,13 +43852,13 @@
         <v>9.116666666666667</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -43878,13 +43878,13 @@
         <v>9.166666666666666</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G111">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -43904,13 +43904,13 @@
         <v>10.98333333333333</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>0.07692307692307693</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -43930,13 +43930,13 @@
         <v>9.15</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H113">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -43956,13 +43956,13 @@
         <v>9.066666666666666</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -43982,13 +43982,13 @@
         <v>10.1</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G115">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>0.06451612903225806</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -44008,13 +44008,13 @@
         <v>9.5</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G116">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -44034,13 +44034,13 @@
         <v>9.5</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G117">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>0.4166666666666667</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -44063,7 +44063,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -44086,13 +44086,13 @@
         <v>9.4</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G119">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>0.0673076923076923</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -44112,13 +44112,13 @@
         <v>9.516666666666667</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G120">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H120">
-        <v>0.02325581395348837</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -44138,13 +44138,13 @@
         <v>9.25</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H121">
-        <v>0.125</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -44164,13 +44164,13 @@
         <v>9.35</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G122">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H122">
-        <v>0.05</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -44193,10 +44193,10 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H123">
-        <v>0.02380952380952381</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -44216,13 +44216,13 @@
         <v>7.450000000000001</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>0.06896551724137931</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -44242,13 +44242,13 @@
         <v>6.716666666666667</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G125">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H125">
-        <v>0.03703703703703703</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -44268,13 +44268,13 @@
         <v>7.433333333333334</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G126">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H126">
-        <v>0.03389830508474576</v>
+        <v>0.0641025641025641</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -44297,10 +44297,10 @@
         <v>2</v>
       </c>
       <c r="G127">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="H127">
-        <v>0.03389830508474576</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -44320,13 +44320,13 @@
         <v>6.183333333333334</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H128">
-        <v>0.02272727272727273</v>
+        <v>0.05084745762711865</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -48275,7 +48275,7 @@
         <v>0</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -48350,13 +48350,13 @@
         <v>3.066666666666667</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G283">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -48405,7 +48405,7 @@
         <v>0</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -48506,13 +48506,13 @@
         <v>2.65</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H289">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -48532,13 +48532,13 @@
         <v>5.783333333333333</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G290">
         <v>4</v>
       </c>
       <c r="H290">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -48561,7 +48561,7 @@
         <v>0</v>
       </c>
       <c r="G291">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -48613,7 +48613,7 @@
         <v>0</v>
       </c>
       <c r="G293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -48691,7 +48691,7 @@
         <v>0</v>
       </c>
       <c r="G296">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -48717,7 +48717,7 @@
         <v>0</v>
       </c>
       <c r="G297">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -48743,7 +48743,7 @@
         <v>0</v>
       </c>
       <c r="G298">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -48769,10 +48769,10 @@
         <v>1</v>
       </c>
       <c r="G299">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H299">
-        <v>0.07692307692307693</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -48795,7 +48795,7 @@
         <v>0</v>
       </c>
       <c r="G300">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -48821,7 +48821,7 @@
         <v>0</v>
       </c>
       <c r="G301">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -48847,7 +48847,7 @@
         <v>0</v>
       </c>
       <c r="G302">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -48925,10 +48925,10 @@
         <v>2</v>
       </c>
       <c r="G305">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H305">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -48951,10 +48951,10 @@
         <v>1</v>
       </c>
       <c r="G306">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H306">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -48974,13 +48974,13 @@
         <v>7.283333333333333</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G307">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H307">
-        <v>0.09090909090909091</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -49000,13 +49000,13 @@
         <v>5.166666666666666</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G308">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H308">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -49026,13 +49026,13 @@
         <v>3.966666666666667</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G309">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H309">
-        <v>0.1538461538461539</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -50155,7 +50155,7 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>0.06646882798963583</v>
+        <v>0.06910040693700424</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -50183,7 +50183,7 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.03356423258504042</v>
+        <v>0.0359451849659928</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -50197,7 +50197,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>0.03563156272519969</v>
+        <v>0.05491804398880273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -50211,7 +50211,7 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>0.06425064935421997</v>
+        <v>0.09122105543351935</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -50435,7 +50435,7 @@
         <v>15</v>
       </c>
       <c r="D25">
-        <v>0.1317460317460317</v>
+        <v>0.1242942942942943</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -50449,7 +50449,7 @@
         <v>17</v>
       </c>
       <c r="D26">
-        <v>0.06009872480460716</v>
+        <v>0.05269228434407819</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -50854,7 +50854,7 @@
         <v>0.1</v>
       </c>
       <c r="Z7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -51012,7 +51012,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="V11">
         <v>0.04651162790697674</v>
@@ -51024,7 +51024,7 @@
         <v>0.1</v>
       </c>
       <c r="Z11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -51062,52 +51062,52 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="V12">
+        <v>0.12</v>
+      </c>
+      <c r="W12">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="X12">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="Z12">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AB12">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AC12">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AD12">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AG12">
         <v>0.0303030303030303</v>
       </c>
-      <c r="S12">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="W12">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="X12">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="AD12">
-        <v>0.1</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
       <c r="AH12">
-        <v>0.06451612903225806</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="AJ12">
         <v>18</v>
@@ -51124,43 +51124,43 @@
         <v>87</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="G13">
-        <v>0.4166666666666667</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="M13">
-        <v>0.02325581395348837</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="N13">
-        <v>0.125</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="O13">
-        <v>0.05</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="P13">
-        <v>0.02380952380952381</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="U13">
-        <v>0.06896551724137931</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="AA13">
-        <v>0.03703703703703703</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="AE13">
-        <v>0.03389830508474576</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="AF13">
-        <v>0.03389830508474576</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="AI13">
-        <v>0.02272727272727273</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AJ13">
         <v>13</v>
@@ -51891,7 +51891,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -51909,10 +51909,10 @@
         <v>0.5</v>
       </c>
       <c r="V32">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="AA32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -51953,7 +51953,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.07692307692307693</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -51971,19 +51971,19 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Y33">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Z33">
-        <v>0.09090909090909091</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="AC33">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="AD33">
-        <v>0.1538461538461539</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AH33">
         <v>0</v>
